--- a/Faculty and Lab Time Table-CSE,IT.xlsx
+++ b/Faculty and Lab Time Table-CSE,IT.xlsx
@@ -5,15 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Faculty TT" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Lab-TT" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="Print_Area_0" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Faculty TT'!$A$2:$J$222</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Print_Area_0" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="265">
   <si>
     <t xml:space="preserve">Aurora's Technological &amp; Research Institute</t>
   </si>
@@ -204,471 +204,480 @@
     <t xml:space="preserve">ECSE-1E</t>
   </si>
   <si>
+    <t xml:space="preserve">PPS LAB-1D (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1C (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1D (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1C (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Gowthami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB-2C(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVOPS-CSM-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVOPS-CSM-3(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB -2C(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVOPS-CSM-3(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB -2B(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Keerthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-1E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1E (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP LAB-CSM-2(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CPE-ECE-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1A (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1A (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CPE- ECE-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1E (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Lakshmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-IT-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-CSE-2D(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-CSE-2C(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-CSE-2D(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-CSE-2C(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Mahesh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD LAB-3C(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAA-3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD-3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD LAB-3A(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD-3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD LAB-3A(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD LAB-3C(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Masood Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-CSM-2 (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-CSE-4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-CSM-2 (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP-CSM-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP LAB-CSM-3(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP LAB-CSM-3(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Rajini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2D (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOPC-2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOPC-2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-CSM-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2D (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2C (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2C (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Rohit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-CSE-2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAA-3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-CSE-2B(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-CSE-2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-CSE-2A(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-CSE-2B(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-CSE-2A(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. S. Anitha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-CS/CSM-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLLAB-CSE-3B(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML-3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLLAB-CSE-3B(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE -DS-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-DS-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-CS/CSM-1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB 2A(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-CSM-1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Sameena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADA-IT-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD-CSM-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-CSE-3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-CSM-3(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD-3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Saravanan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-IT-2 (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAA-3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAA-3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM-IT-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM LAB-IT-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-IT-2 (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Shilpa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCC-IT-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD-3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD LAB-CSE-3B(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD LAB-3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD-3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCC LAB-IT-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD LAB-CSE-3B(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Sowmya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-ECE-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Mamatha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB-CSE-2D (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB -IT-2(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITWS LAB 2A(B1)</t>
   </si>
   <si>
-    <t xml:space="preserve">PPS LAB-1D (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1C (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1D (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1C (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Gowthami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEVOPS-CSM-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB-2C(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEVOPS-CSM-3(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB -2C(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEVOPS-CSM-3(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB -2B(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Keerthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-1E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1E (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP LAB-CSM-2(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CPE-ECE-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1A (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1A (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CPE- ECE-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1E (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Lakshmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS-2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS-IT-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS-2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-CSE-2D(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-CSE-2C(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-CSE-2D(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-CSE-2C(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Mahesh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD LAB-3C(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAA-3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD-3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD LAB-3A(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD-3C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD LAB-3A(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD LAB-3C(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Masood Ahmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-CSM-2 (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS-CSE-4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-CSM-2 (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP-CSM-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP LAB-CSM-3(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP LAB-CSM-3(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Rajini </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2D (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOPC-2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOPC-2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS-CSM-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2D (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2C (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2C (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Rohit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS-CSE-2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAA-3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-CSE-2B(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS-CSE-2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-CSE-2A(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-CSE-2B(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-CSE-2A(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. S. Anitha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-CS/CSM-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLLAB-CSE-3B(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML-3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLLAB-CSE-3B(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE -DS-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-DS-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-CS/CSM-1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB 2A(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-CSM-1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Sameena </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADA-IT-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD LAB-CSE-3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD-CSM-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD LAB-CSM-3(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD-3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Saravanan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-IT-2 (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM-IT-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAA-3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAA-3C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM LAB-IT-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-IT-2 (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Shilpa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD-3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCC-IT-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD LAB-CSE-3B(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD LAB-3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD-3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCC LAB-IT-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD LAB-CSE-3B(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Sowmya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI-ECE-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Srija</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB-CSE-2D (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB -IT-2(B2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ITWS LAB-CSE-2D (B1)</t>
   </si>
   <si>
+    <t xml:space="preserve">ITWS LAB -IT-2(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Subhashini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP LAB-CSM-2(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB -CSC-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS CSM-1B/CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-CSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB -CSM-1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSD(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSD(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. TV Ramanamma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-3C(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOT-IT-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-3C(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD-3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD-3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-3A(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-3A(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Vineela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD-3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB 2B(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB-IT-2 (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-3B(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOPC-IT-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB - IT-2 (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-3B(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Vinod Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M&amp;C-CSC-I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSM-CSE-2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSF-CSM-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPE LAB-ECE-1 (Ms. Srija)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAB TIME TABLE - 2022-2023 (I-I, II-I&amp; IV-I)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A001 (DS LAB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB- IT-2(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL LAB-ECE-3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB- CSE-2A-(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB- IT-2-(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB- CSE-2A--(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A110A (ITWS LAB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB – CSE-2D(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB – CSE-2B(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB - IT-2(B2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS-CSE-2A(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL LAB-ECE-3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS-CSE-2A(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A110B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-CSM-3(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-CSE-3A(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-CSE-3A(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A214A/1 (PPS,DS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSE-1E(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSE-1B(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSE-1D(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSE-1A(B1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPE LAB-ECE-1</t>
   </si>
   <si>
-    <t xml:space="preserve">ITWS LAB -IT-2(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Subhashini </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP LAB-CSM-2(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB -CSC-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS CSM-1B/CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-CSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB -CSM-1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSD(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSD(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. TV Ramanamma </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD LAB-3C(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOT-IT-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD-3C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD LAB-3C(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD-3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD LAB-3A(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD LAB-3A(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB-2A(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Vineela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD-3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB 2B(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB-IT-2 (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD LAB-3B(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOPC-IT-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB - IT-2 (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD LAB-3B(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Vinod Kumar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M&amp;C-CSC-I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSM-CSE-2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSF-CSM-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAB TIME TABLE - 2022-2023 (I-I, II-I&amp; IV-I)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A001 (DS LAB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB- IT-2(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB- CSE-2A-(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB- IT-2-(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB- CSE-2A--(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A110A (ITWS LAB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB – CSE-2D(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB – CSE-2B(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB - IT-2(B2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS-CSE-2A(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS-CSE-2A(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A110B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD LAB-CSM-3(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD LAB-CSE-3A(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD LAB-CSE-3A(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A214A/1 (PPS,DS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSE-1E(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSE-1B(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSE-1D(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSE-1A(B1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">PPS LAB-CSE-1A(B2)</t>
   </si>
   <si>
@@ -712,9 +721,6 @@
   </si>
   <si>
     <t xml:space="preserve">CD LAB-CSE-3A(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cd ia</t>
   </si>
   <si>
     <t xml:space="preserve">CD LAB-3B(B2)</t>
@@ -823,7 +829,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -925,6 +931,12 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -939,7 +951,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -960,32 +972,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFB3CAC7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFAA95"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB3CAC7"/>
-        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1044,7 +1032,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1133,8 +1121,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1145,11 +1149,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1161,16 +1165,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1185,11 +1185,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1205,7 +1213,7 @@
       <alignment horizontal="right" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1217,16 +1225,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1254,16 +1254,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3CAC7"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFDAE3F3"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FFDAE3F3"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1277,12 +1277,12 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFFAA95"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1308,15 +1308,15 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C145" activeCellId="0" sqref="C145"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A213" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E73" activeCellId="0" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.85"/>
@@ -1590,8 +1590,8 @@
         <v>24</v>
       </c>
       <c r="D18" s="22"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="23" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="22" t="s">
@@ -1609,16 +1609,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="17"/>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="22" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="17"/>
       <c r="K19" s="10"/>
@@ -1631,7 +1631,7 @@
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="19"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -1648,7 +1648,7 @@
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -1663,7 +1663,7 @@
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="17"/>
       <c r="H22" s="20"/>
       <c r="I22" s="21"/>
@@ -1678,7 +1678,7 @@
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="19"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -1746,10 +1746,10 @@
       <c r="F27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="22" t="s">
+      <c r="G27" s="24" t="s">
         <v>28</v>
       </c>
+      <c r="H27" s="24"/>
       <c r="I27" s="22"/>
       <c r="J27" s="17"/>
       <c r="K27" s="10"/>
@@ -1915,7 +1915,7 @@
       <c r="G36" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="23"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="L36" s="0"/>
@@ -1993,12 +1993,10 @@
       <c r="A39" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="17" t="s">
+      <c r="B39" s="17" t="s">
         <v>34</v>
       </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17" t="s">
         <v>33</v>
@@ -2024,10 +2022,10 @@
       <c r="A40" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
         <v>34</v>
@@ -2126,83 +2124,84 @@
       <c r="A45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17" t="s">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="G45" s="26"/>
+      <c r="H45" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
       <c r="K45" s="10"/>
     </row>
     <row r="46" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17" t="s">
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="17"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="22"/>
       <c r="H46" s="22" t="s">
         <v>42</v>
       </c>
       <c r="I46" s="22"/>
-      <c r="J46" s="17"/>
+      <c r="J46" s="22"/>
       <c r="K46" s="10"/>
     </row>
     <row r="47" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24" t="s">
+      <c r="C47" s="27"/>
+      <c r="D47" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="25" t="s">
+      <c r="E47" s="28"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
       <c r="K47" s="10"/>
     </row>
     <row r="48" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="17" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I48" s="17"/>
-      <c r="J48" s="23"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="27"/>
       <c r="K48" s="10"/>
     </row>
     <row r="49" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2213,15 +2212,15 @@
         <v>46</v>
       </c>
       <c r="C49" s="22"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="21" t="s">
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J49" s="17"/>
+      <c r="J49" s="22"/>
       <c r="K49" s="10"/>
     </row>
     <row r="50" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2234,7 +2233,7 @@
         <v>17</v>
       </c>
       <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -2242,16 +2241,16 @@
       <c r="K50" s="10"/>
     </row>
     <row r="51" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="26"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
       <c r="K51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2329,19 +2328,19 @@
       <c r="B54" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="29" t="s">
+      <c r="C54" s="33"/>
+      <c r="D54" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="19" t="s">
+      <c r="E54" s="22"/>
+      <c r="F54" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
       <c r="J54" s="17"/>
       <c r="K54" s="10"/>
       <c r="L54" s="0"/>
@@ -2359,18 +2358,18 @@
       <c r="A55" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
       <c r="E55" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="17" t="s">
+      <c r="F55" s="23"/>
+      <c r="G55" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
       <c r="J55" s="17"/>
       <c r="K55" s="10"/>
       <c r="L55" s="0"/>
@@ -2388,14 +2387,14 @@
       <c r="A56" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="17" t="s">
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="22" t="s">
         <v>48</v>
       </c>
       <c r="H56" s="17"/>
@@ -2419,16 +2418,16 @@
       <c r="A57" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17" t="s">
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="17"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="22"/>
       <c r="H57" s="17" t="s">
         <v>53</v>
       </c>
@@ -2450,14 +2449,14 @@
       <c r="A58" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="17" t="s">
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="22" t="s">
         <v>49</v>
       </c>
       <c r="H58" s="17"/>
@@ -2481,14 +2480,14 @@
       <c r="A59" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="17"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="22"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
@@ -2505,16 +2504,16 @@
       <c r="U59" s="0"/>
     </row>
     <row r="60" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="26"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
       <c r="K60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2604,7 +2603,7 @@
       <c r="H63" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="I63" s="23"/>
+      <c r="I63" s="25"/>
       <c r="J63" s="17"/>
       <c r="K63" s="10"/>
       <c r="L63" s="0"/>
@@ -2629,11 +2628,9 @@
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
       <c r="K64" s="10"/>
       <c r="L64" s="0"/>
       <c r="M64" s="0"/>
@@ -2651,7 +2648,7 @@
         <v>19</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -2660,7 +2657,7 @@
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="18"/>
@@ -2689,7 +2686,7 @@
       <c r="F66" s="19"/>
       <c r="G66" s="21"/>
       <c r="H66" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="18"/>
@@ -2711,7 +2708,7 @@
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -2762,31 +2759,31 @@
       <c r="U68" s="0"/>
     </row>
     <row r="69" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="26"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
       <c r="K69" s="10"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="27"/>
-      <c r="T69" s="27"/>
-      <c r="U69" s="27"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="31"/>
+      <c r="T69" s="31"/>
+      <c r="U69" s="31"/>
     </row>
     <row r="70" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2858,17 +2855,15 @@
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>66</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E72" s="18"/>
       <c r="F72" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
@@ -2889,16 +2884,16 @@
         <v>18</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="23"/>
+        <v>64</v>
+      </c>
+      <c r="C73" s="25"/>
       <c r="D73" s="18" t="s">
         <v>66</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="19"/>
       <c r="H73" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
@@ -2918,9 +2913,11 @@
       <c r="A74" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="23"/>
+      <c r="C74" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="E74" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="21"/>
@@ -2946,7 +2943,7 @@
         <v>20</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -2954,7 +2951,7 @@
       <c r="F75" s="19"/>
       <c r="G75" s="17"/>
       <c r="H75" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
@@ -2975,12 +2972,12 @@
         <v>21</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
       <c r="E76" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F76" s="19"/>
       <c r="H76" s="17"/>
@@ -3024,21 +3021,21 @@
       <c r="U77" s="0"/>
     </row>
     <row r="78" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="26"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
       <c r="K78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -3089,7 +3086,7 @@
         <v>15</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -3098,11 +3095,11 @@
         <v>16</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H81" s="17"/>
       <c r="I81" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J81" s="17"/>
       <c r="K81" s="10"/>
@@ -3112,14 +3109,14 @@
         <v>18</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="F82" s="19"/>
-      <c r="G82" s="23"/>
+      <c r="G82" s="25"/>
       <c r="H82" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
@@ -3130,15 +3127,16 @@
         <v>19</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C83" s="17"/>
+      <c r="D83" s="26"/>
       <c r="E83" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F83" s="19"/>
       <c r="G83" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="17"/>
@@ -3149,19 +3147,19 @@
       <c r="A84" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B84" s="23"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D84" s="22"/>
-      <c r="E84" s="17" t="s">
-        <v>75</v>
+      <c r="E84" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="F84" s="19"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="18"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="33"/>
       <c r="I84" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J84" s="17"/>
       <c r="K84" s="10"/>
@@ -3171,7 +3169,7 @@
         <v>21</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>17</v>
@@ -3180,7 +3178,7 @@
       <c r="E85" s="17"/>
       <c r="F85" s="19"/>
       <c r="G85" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H85" s="17"/>
       <c r="J85" s="18"/>
@@ -3202,21 +3200,21 @@
       <c r="K86" s="10"/>
     </row>
     <row r="87" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="26"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="31"/>
       <c r="K87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -3287,7 +3285,7 @@
         <v>15</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -3295,9 +3293,9 @@
       <c r="F90" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G90" s="31"/>
+      <c r="G90" s="22"/>
       <c r="H90" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I90" s="22"/>
       <c r="J90" s="17"/>
@@ -3319,17 +3317,17 @@
       </c>
       <c r="B91" s="17"/>
       <c r="C91" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
       <c r="F91" s="19"/>
       <c r="G91" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H91" s="17"/>
       <c r="I91" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J91" s="17"/>
       <c r="K91" s="10"/>
@@ -3349,7 +3347,7 @@
         <v>19</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
@@ -3357,7 +3355,7 @@
       <c r="F92" s="19"/>
       <c r="G92" s="17"/>
       <c r="H92" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
@@ -3378,14 +3376,14 @@
         <v>20</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
       <c r="F93" s="19"/>
       <c r="G93" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
@@ -3408,16 +3406,16 @@
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F94" s="19"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
@@ -3438,7 +3436,7 @@
         <v>22</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -3461,31 +3459,31 @@
       <c r="U95" s="0"/>
     </row>
     <row r="96" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="26"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
       <c r="K96" s="10"/>
-      <c r="L96" s="26"/>
-      <c r="M96" s="27"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="27"/>
-      <c r="P96" s="27"/>
-      <c r="Q96" s="30"/>
-      <c r="R96" s="27"/>
-      <c r="S96" s="27"/>
-      <c r="T96" s="27"/>
-      <c r="U96" s="27"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="31"/>
+      <c r="O96" s="31"/>
+      <c r="P96" s="31"/>
+      <c r="Q96" s="34"/>
+      <c r="R96" s="31"/>
+      <c r="S96" s="31"/>
+      <c r="T96" s="31"/>
+      <c r="U96" s="31"/>
     </row>
     <row r="97" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -3555,7 +3553,7 @@
         <v>15</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -3566,7 +3564,7 @@
       <c r="G99" s="21"/>
       <c r="H99" s="17"/>
       <c r="I99" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J99" s="17"/>
       <c r="L99" s="0"/>
@@ -3586,16 +3584,16 @@
       </c>
       <c r="B100" s="17"/>
       <c r="C100" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D100" s="25"/>
+      <c r="E100" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="D100" s="23"/>
-      <c r="E100" s="21" t="s">
-        <v>94</v>
       </c>
       <c r="F100" s="19"/>
       <c r="G100" s="17"/>
       <c r="H100" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
@@ -3615,17 +3613,17 @@
         <v>19</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="C101" s="25"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="F101" s="19"/>
       <c r="G101" s="17"/>
       <c r="H101" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
@@ -3644,13 +3642,13 @@
       <c r="A102" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17" t="s">
-        <v>93</v>
-      </c>
+      <c r="B102" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F102" s="19"/>
       <c r="G102" s="17"/>
@@ -3674,16 +3672,16 @@
       </c>
       <c r="B103" s="17"/>
       <c r="C103" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F103" s="19"/>
       <c r="G103" s="17"/>
       <c r="H103" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
@@ -3723,30 +3721,30 @@
       <c r="U104" s="0"/>
     </row>
     <row r="105" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="26"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="L105" s="26"/>
-      <c r="M105" s="27"/>
-      <c r="N105" s="27"/>
-      <c r="O105" s="27"/>
-      <c r="P105" s="27"/>
-      <c r="Q105" s="30"/>
-      <c r="R105" s="27"/>
-      <c r="S105" s="27"/>
-      <c r="T105" s="27"/>
-      <c r="U105" s="27"/>
+      <c r="A105" s="30"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
+      <c r="J105" s="31"/>
+      <c r="L105" s="30"/>
+      <c r="M105" s="31"/>
+      <c r="N105" s="31"/>
+      <c r="O105" s="31"/>
+      <c r="P105" s="31"/>
+      <c r="Q105" s="34"/>
+      <c r="R105" s="31"/>
+      <c r="S105" s="31"/>
+      <c r="T105" s="31"/>
+      <c r="U105" s="31"/>
     </row>
     <row r="106" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -3815,7 +3813,7 @@
         <v>15</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -3824,7 +3822,7 @@
         <v>16</v>
       </c>
       <c r="G108" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H108" s="22"/>
       <c r="I108" s="17"/>
@@ -3845,15 +3843,15 @@
         <v>18</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
       <c r="F109" s="19"/>
-      <c r="G109" s="17"/>
+      <c r="G109" s="22"/>
       <c r="H109" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
@@ -3875,14 +3873,14 @@
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E110" s="17"/>
       <c r="F110" s="19"/>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
-      <c r="J110" s="23"/>
+      <c r="J110" s="25"/>
       <c r="L110" s="0"/>
       <c r="M110" s="0"/>
       <c r="N110" s="0"/>
@@ -3899,7 +3897,7 @@
         <v>20</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
@@ -3907,7 +3905,7 @@
       <c r="F111" s="19"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
@@ -3927,13 +3925,13 @@
         <v>21</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="17"/>
       <c r="F112" s="19"/>
-      <c r="G112" s="23"/>
+      <c r="G112" s="25"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
       <c r="J112" s="17"/>
@@ -3973,20 +3971,20 @@
       <c r="U113" s="0"/>
     </row>
     <row r="114" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="26"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
+      <c r="A114" s="30"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="31"/>
+      <c r="J114" s="31"/>
     </row>
     <row r="115" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -4035,7 +4033,7 @@
         <v>15</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -4045,7 +4043,7 @@
       </c>
       <c r="G117" s="17"/>
       <c r="H117" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
@@ -4056,17 +4054,17 @@
       </c>
       <c r="B118" s="17"/>
       <c r="C118" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="17"/>
       <c r="F118" s="19"/>
       <c r="G118" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H118" s="17"/>
       <c r="I118" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J118" s="17"/>
     </row>
@@ -4075,17 +4073,17 @@
         <v>19</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C119" s="17"/>
       <c r="D119" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="19"/>
       <c r="G119" s="17"/>
       <c r="H119" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I119" s="17"/>
       <c r="J119" s="17"/>
@@ -4095,13 +4093,13 @@
         <v>20</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
       <c r="F120" s="19"/>
       <c r="G120" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
@@ -4112,17 +4110,17 @@
         <v>21</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="19"/>
       <c r="G121" s="17"/>
       <c r="H121" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I121" s="17"/>
       <c r="J121" s="17"/>
@@ -4132,7 +4130,7 @@
         <v>22</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -4144,20 +4142,20 @@
       <c r="J122" s="17"/>
     </row>
     <row r="123" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="26"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
+      <c r="A123" s="30"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
+      <c r="J123" s="31"/>
     </row>
     <row r="124" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -4205,22 +4203,22 @@
       <c r="A126" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17" t="s">
+      <c r="B126" s="22"/>
+      <c r="C126" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17" t="s">
+      <c r="F126" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G126" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F126" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="H126" s="17"/>
-      <c r="I126" s="17"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="22"/>
       <c r="J126" s="17"/>
     </row>
     <row r="127" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4228,18 +4226,18 @@
         <v>18</v>
       </c>
       <c r="B127" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H127" s="22"/>
+      <c r="I127" s="17" t="s">
         <v>115</v>
-      </c>
-      <c r="C127" s="22"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H127" s="17"/>
-      <c r="I127" s="17" t="s">
-        <v>116</v>
       </c>
       <c r="J127" s="17"/>
     </row>
@@ -4248,14 +4246,14 @@
         <v>19</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C128" s="22"/>
       <c r="D128" s="22"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="17"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
       <c r="I128" s="17"/>
       <c r="J128" s="17"/>
     </row>
@@ -4263,18 +4261,18 @@
       <c r="A129" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H129" s="17"/>
-      <c r="I129" s="17"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
       <c r="J129" s="17"/>
     </row>
     <row r="130" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4282,16 +4280,16 @@
         <v>21</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C130" s="22"/>
       <c r="D130" s="22"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H130" s="17"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H130" s="22"/>
       <c r="I130" s="17"/>
       <c r="J130" s="17"/>
     </row>
@@ -4301,33 +4299,33 @@
       </c>
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
-      <c r="D131" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E131" s="17"/>
-      <c r="F131" s="19"/>
+      <c r="D131" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E131" s="22"/>
+      <c r="F131" s="23"/>
       <c r="G131" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="17"/>
       <c r="J131" s="17"/>
     </row>
     <row r="132" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="26"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="30"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="27"/>
+      <c r="A132" s="30"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="31"/>
+      <c r="J132" s="31"/>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -4365,7 +4363,7 @@
       <c r="E134" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="33" t="s">
+      <c r="F134" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="16" t="s">
@@ -4396,15 +4394,15 @@
         <v>15</v>
       </c>
       <c r="B135" s="17"/>
-      <c r="D135" s="34" t="s">
-        <v>124</v>
+      <c r="D135" s="37" t="s">
+        <v>123</v>
       </c>
       <c r="F135" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="17"/>
       <c r="H135" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I135" s="17"/>
       <c r="J135" s="17"/>
@@ -4424,14 +4422,14 @@
         <v>18</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
-      <c r="E136" s="24"/>
+      <c r="E136" s="38"/>
       <c r="F136" s="19"/>
       <c r="G136" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
@@ -4452,18 +4450,18 @@
         <v>19</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
       <c r="E137" s="17"/>
       <c r="F137" s="19"/>
-      <c r="G137" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H137" s="23"/>
+      <c r="G137" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="H137" s="25"/>
       <c r="I137" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J137" s="17"/>
       <c r="L137" s="0"/>
@@ -4481,22 +4479,22 @@
       <c r="A138" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B138" s="24" t="s">
-        <v>130</v>
+      <c r="B138" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="C138" s="17"/>
       <c r="D138" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E138" s="17"/>
       <c r="F138" s="19"/>
       <c r="G138" s="17"/>
       <c r="H138" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I138" s="24"/>
-      <c r="J138" s="24" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="I138" s="38"/>
+      <c r="J138" s="38" t="s">
+        <v>130</v>
       </c>
       <c r="L138" s="0"/>
       <c r="M138" s="0"/>
@@ -4514,7 +4512,7 @@
         <v>21</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C139" s="22"/>
       <c r="D139" s="22"/>
@@ -4522,10 +4520,10 @@
       <c r="F139" s="19"/>
       <c r="G139" s="17"/>
       <c r="H139" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I139" s="17"/>
-      <c r="J139" s="23"/>
+      <c r="J139" s="25"/>
       <c r="L139" s="0"/>
       <c r="M139" s="0"/>
       <c r="N139" s="0"/>
@@ -4572,20 +4570,20 @@
       <c r="H141" s="0"/>
       <c r="I141" s="0"/>
       <c r="J141" s="0"/>
-      <c r="L141" s="26"/>
-      <c r="M141" s="27"/>
-      <c r="N141" s="27"/>
-      <c r="O141" s="27"/>
-      <c r="P141" s="27"/>
-      <c r="Q141" s="30"/>
-      <c r="R141" s="27"/>
-      <c r="S141" s="27"/>
-      <c r="T141" s="27"/>
-      <c r="U141" s="27"/>
+      <c r="L141" s="30"/>
+      <c r="M141" s="31"/>
+      <c r="N141" s="31"/>
+      <c r="O141" s="31"/>
+      <c r="P141" s="31"/>
+      <c r="Q141" s="34"/>
+      <c r="R141" s="31"/>
+      <c r="S141" s="31"/>
+      <c r="T141" s="31"/>
+      <c r="U141" s="31"/>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -4653,12 +4651,14 @@
       <c r="A144" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B144" s="17"/>
-      <c r="C144" s="17" t="s">
+      <c r="B144" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
       <c r="F144" s="19" t="s">
         <v>16</v>
       </c>
@@ -4684,17 +4684,15 @@
         <v>18</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C145" s="17"/>
-      <c r="D145" s="17" t="s">
-        <v>135</v>
-      </c>
+      <c r="D145" s="17"/>
       <c r="E145" s="17"/>
       <c r="F145" s="19"/>
       <c r="G145" s="17"/>
       <c r="H145" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I145" s="17"/>
       <c r="J145" s="17"/>
@@ -4715,11 +4713,11 @@
       </c>
       <c r="B146" s="17"/>
       <c r="C146" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D146" s="17"/>
       <c r="E146" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F146" s="19"/>
       <c r="G146" s="17"/>
@@ -4742,14 +4740,14 @@
         <v>20</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
       <c r="E147" s="17"/>
       <c r="F147" s="19"/>
       <c r="G147" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H147" s="17"/>
       <c r="I147" s="17"/>
@@ -4770,20 +4768,20 @@
         <v>21</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C148" s="17"/>
       <c r="D148" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E148" s="17"/>
       <c r="F148" s="19"/>
       <c r="G148" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="H148" s="23"/>
-      <c r="I148" s="23"/>
-      <c r="J148" s="23"/>
+        <v>134</v>
+      </c>
+      <c r="H148" s="25"/>
+      <c r="I148" s="25"/>
+      <c r="J148" s="25"/>
       <c r="L148" s="0"/>
       <c r="M148" s="0"/>
       <c r="N148" s="0"/>
@@ -4820,20 +4818,20 @@
       <c r="U149" s="0"/>
     </row>
     <row r="150" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="26"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="27"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="30"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
-      <c r="I150" s="27"/>
-      <c r="J150" s="27"/>
+      <c r="A150" s="30"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="34"/>
+      <c r="G150" s="31"/>
+      <c r="H150" s="31"/>
+      <c r="I150" s="31"/>
+      <c r="J150" s="31"/>
     </row>
     <row r="151" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -4884,7 +4882,7 @@
       </c>
       <c r="B153" s="17"/>
       <c r="C153" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="17"/>
@@ -4892,9 +4890,7 @@
         <v>16</v>
       </c>
       <c r="G153" s="17"/>
-      <c r="H153" s="17" t="s">
-        <v>142</v>
-      </c>
+      <c r="H153" s="17"/>
       <c r="I153" s="17"/>
       <c r="J153" s="17"/>
       <c r="L153" s="2"/>
@@ -4905,7 +4901,7 @@
       </c>
       <c r="B154" s="17"/>
       <c r="C154" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D154" s="21"/>
       <c r="E154" s="17" t="s">
@@ -4913,9 +4909,7 @@
       </c>
       <c r="F154" s="19"/>
       <c r="G154" s="17"/>
-      <c r="H154" s="17" t="s">
-        <v>144</v>
-      </c>
+      <c r="H154" s="17"/>
       <c r="I154" s="17"/>
       <c r="J154" s="17"/>
     </row>
@@ -4923,17 +4917,17 @@
       <c r="A155" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B155" s="17" t="s">
-        <v>142</v>
-      </c>
+      <c r="B155" s="17"/>
       <c r="C155" s="17"/>
-      <c r="D155" s="21"/>
+      <c r="D155" s="17" t="s">
+        <v>143</v>
+      </c>
       <c r="E155" s="17"/>
       <c r="F155" s="19"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="17" t="s">
-        <v>145</v>
-      </c>
+      <c r="G155" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H155" s="17"/>
       <c r="I155" s="17"/>
       <c r="J155" s="17"/>
     </row>
@@ -4942,17 +4936,19 @@
         <v>20</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
       <c r="E156" s="17"/>
       <c r="F156" s="19"/>
       <c r="G156" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H156" s="17"/>
-      <c r="I156" s="21"/>
+      <c r="I156" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="J156" s="17"/>
       <c r="L156" s="1"/>
     </row>
@@ -4960,15 +4956,15 @@
       <c r="A157" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B157" s="17"/>
+      <c r="B157" s="21" t="s">
+        <v>142</v>
+      </c>
       <c r="C157" s="17"/>
-      <c r="D157" s="21" t="s">
-        <v>144</v>
-      </c>
+      <c r="D157" s="21"/>
       <c r="E157" s="17"/>
       <c r="F157" s="19"/>
       <c r="G157" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H157" s="17"/>
       <c r="I157" s="21"/>
@@ -4992,7 +4988,7 @@
     <row r="159" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="160" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -5042,19 +5038,19 @@
         <v>15</v>
       </c>
       <c r="B162" s="17"/>
-      <c r="C162" s="17" t="s">
-        <v>148</v>
+      <c r="C162" s="39" t="s">
+        <v>147</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F162" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G162" s="17"/>
       <c r="H162" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I162" s="17"/>
       <c r="J162" s="17"/>
@@ -5065,14 +5061,14 @@
         <v>18</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C163" s="17"/>
       <c r="D163" s="17"/>
       <c r="E163" s="17"/>
       <c r="F163" s="19"/>
       <c r="G163" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H163" s="17"/>
       <c r="I163" s="17"/>
@@ -5082,14 +5078,14 @@
       <c r="A164" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B164" s="17"/>
-      <c r="C164" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17" t="s">
-        <v>149</v>
-      </c>
+      <c r="B164" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E164" s="17"/>
       <c r="F164" s="19"/>
       <c r="G164" s="17"/>
       <c r="H164" s="17" t="s">
@@ -5104,7 +5100,7 @@
         <v>20</v>
       </c>
       <c r="B165" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C165" s="17"/>
       <c r="D165" s="17"/>
@@ -5116,7 +5112,7 @@
       <c r="H165" s="17"/>
       <c r="I165" s="17"/>
       <c r="J165" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L165" s="1"/>
     </row>
@@ -5125,7 +5121,7 @@
         <v>21</v>
       </c>
       <c r="B166" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C166" s="17"/>
       <c r="D166" s="17"/>
@@ -5133,7 +5129,7 @@
       <c r="F166" s="19"/>
       <c r="G166" s="17"/>
       <c r="H166" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I166" s="17"/>
       <c r="J166" s="17"/>
@@ -5155,7 +5151,7 @@
     <row r="168" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -5227,7 +5223,7 @@
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
       <c r="E171" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F171" s="19" t="s">
         <v>16</v>
@@ -5281,7 +5277,7 @@
       <c r="E173" s="17"/>
       <c r="F173" s="19"/>
       <c r="G173" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H173" s="17"/>
       <c r="I173" s="17"/>
@@ -5305,7 +5301,7 @@
       <c r="C174" s="17"/>
       <c r="D174" s="17"/>
       <c r="E174" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F174" s="19"/>
       <c r="G174" s="17"/>
@@ -5386,7 +5382,7 @@
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -5437,7 +5433,7 @@
         <v>15</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C180" s="17"/>
       <c r="D180" s="17"/>
@@ -5454,17 +5450,19 @@
       <c r="A181" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B181" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C181" s="35"/>
-      <c r="D181" s="35"/>
+      <c r="B181" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C181" s="40"/>
+      <c r="D181" s="40"/>
       <c r="E181" s="17"/>
       <c r="F181" s="19"/>
       <c r="G181" s="17"/>
-      <c r="H181" s="17"/>
-      <c r="I181" s="17"/>
-      <c r="J181" s="17"/>
+      <c r="H181" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I181" s="24"/>
+      <c r="J181" s="24"/>
     </row>
     <row r="182" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="15" t="s">
@@ -5479,9 +5477,7 @@
       <c r="F182" s="19"/>
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
-      <c r="I182" s="17" t="s">
-        <v>161</v>
-      </c>
+      <c r="I182" s="17"/>
       <c r="J182" s="17"/>
       <c r="L182" s="1"/>
     </row>
@@ -5489,11 +5485,11 @@
       <c r="A183" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B183" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C183" s="35"/>
-      <c r="D183" s="35"/>
+      <c r="B183" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C183" s="40"/>
+      <c r="D183" s="40"/>
       <c r="E183" s="17"/>
       <c r="F183" s="19"/>
       <c r="G183" s="17"/>
@@ -5531,20 +5527,20 @@
       <c r="J185" s="17"/>
     </row>
     <row r="186" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="26"/>
-      <c r="B186" s="27"/>
-      <c r="C186" s="27"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="30"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="27"/>
+      <c r="A186" s="30"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="31"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="31"/>
+      <c r="F186" s="34"/>
+      <c r="G186" s="31"/>
+      <c r="H186" s="31"/>
+      <c r="I186" s="31"/>
+      <c r="J186" s="31"/>
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -5595,7 +5591,7 @@
         <v>15</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C189" s="17"/>
       <c r="D189" s="17"/>
@@ -5604,11 +5600,11 @@
         <v>16</v>
       </c>
       <c r="G189" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H189" s="17"/>
       <c r="J189" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5616,20 +5612,20 @@
         <v>18</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C190" s="17"/>
       <c r="D190" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E190" s="17"/>
       <c r="F190" s="19"/>
       <c r="G190" s="18"/>
-      <c r="H190" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="I190" s="36"/>
-      <c r="J190" s="23"/>
+      <c r="H190" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I190" s="41"/>
+      <c r="J190" s="25"/>
     </row>
     <row r="191" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="15" t="s">
@@ -5637,13 +5633,13 @@
       </c>
       <c r="B191" s="17"/>
       <c r="C191" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D191" s="17"/>
-      <c r="E191" s="23"/>
+      <c r="E191" s="25"/>
       <c r="F191" s="19"/>
-      <c r="G191" s="24" t="s">
-        <v>167</v>
+      <c r="G191" s="38" t="s">
+        <v>166</v>
       </c>
       <c r="I191" s="17"/>
       <c r="J191" s="17"/>
@@ -5654,17 +5650,17 @@
       </c>
       <c r="B192" s="17"/>
       <c r="C192" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D192" s="17"/>
-      <c r="E192" s="23"/>
+      <c r="E192" s="25"/>
       <c r="F192" s="19"/>
       <c r="G192" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="H192" s="25"/>
+      <c r="I192" s="18" t="s">
         <v>166</v>
-      </c>
-      <c r="H192" s="23"/>
-      <c r="I192" s="18" t="s">
-        <v>167</v>
       </c>
       <c r="J192" s="17"/>
     </row>
@@ -5672,21 +5668,21 @@
       <c r="A193" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B193" s="24" t="s">
-        <v>167</v>
+      <c r="B193" s="38" t="s">
+        <v>166</v>
       </c>
       <c r="C193" s="17"/>
       <c r="D193" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E193" s="17"/>
       <c r="F193" s="19"/>
-      <c r="G193" s="23"/>
+      <c r="G193" s="25"/>
       <c r="H193" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I193" s="17"/>
-      <c r="J193" s="23"/>
+      <c r="J193" s="25"/>
     </row>
     <row r="194" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
@@ -5703,20 +5699,20 @@
       <c r="J194" s="17"/>
     </row>
     <row r="195" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="26"/>
-      <c r="B195" s="27"/>
-      <c r="C195" s="27"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="30"/>
-      <c r="G195" s="27"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="27"/>
-      <c r="J195" s="27"/>
+      <c r="A195" s="30"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="31"/>
+      <c r="D195" s="31"/>
+      <c r="E195" s="31"/>
+      <c r="F195" s="34"/>
+      <c r="G195" s="31"/>
+      <c r="H195" s="31"/>
+      <c r="I195" s="31"/>
+      <c r="J195" s="31"/>
     </row>
     <row r="196" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -5765,7 +5761,7 @@
         <v>15</v>
       </c>
       <c r="B198" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C198" s="17"/>
       <c r="D198" s="17"/>
@@ -5774,12 +5770,10 @@
         <v>16</v>
       </c>
       <c r="G198" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="H198" s="18"/>
-      <c r="I198" s="17" t="s">
-        <v>175</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="H198" s="17"/>
+      <c r="I198" s="17"/>
       <c r="J198" s="17"/>
     </row>
     <row r="199" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5787,19 +5781,17 @@
         <v>18</v>
       </c>
       <c r="B199" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C199" s="17"/>
       <c r="D199" s="17"/>
       <c r="E199" s="17"/>
       <c r="F199" s="19"/>
       <c r="G199" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H199" s="17"/>
-      <c r="I199" s="17" t="s">
-        <v>174</v>
-      </c>
+      <c r="I199" s="17"/>
       <c r="J199" s="17"/>
     </row>
     <row r="200" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5812,12 +5804,12 @@
       <c r="C200" s="17"/>
       <c r="D200" s="17"/>
       <c r="E200" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F200" s="19"/>
       <c r="G200" s="17"/>
       <c r="H200" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I200" s="17"/>
       <c r="J200" s="17"/>
@@ -5827,18 +5819,18 @@
       <c r="A201" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B201" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C201" s="17"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="17" t="s">
+        <v>176</v>
+      </c>
       <c r="D201" s="17"/>
       <c r="E201" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F201" s="19"/>
       <c r="G201" s="17"/>
       <c r="H201" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I201" s="17"/>
       <c r="J201" s="17"/>
@@ -5849,7 +5841,7 @@
         <v>21</v>
       </c>
       <c r="B202" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C202" s="17"/>
       <c r="D202" s="17"/>
@@ -5877,20 +5869,20 @@
       <c r="J203" s="17"/>
     </row>
     <row r="204" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="26"/>
-      <c r="B204" s="27"/>
-      <c r="C204" s="27"/>
-      <c r="D204" s="27"/>
-      <c r="E204" s="27"/>
-      <c r="F204" s="30"/>
-      <c r="G204" s="27"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="27"/>
-      <c r="J204" s="27"/>
+      <c r="A204" s="30"/>
+      <c r="B204" s="31"/>
+      <c r="C204" s="31"/>
+      <c r="D204" s="31"/>
+      <c r="E204" s="31"/>
+      <c r="F204" s="34"/>
+      <c r="G204" s="31"/>
+      <c r="H204" s="31"/>
+      <c r="I204" s="31"/>
+      <c r="J204" s="31"/>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
@@ -5941,7 +5933,7 @@
         <v>15</v>
       </c>
       <c r="B207" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C207" s="17"/>
       <c r="D207" s="17"/>
@@ -5950,7 +5942,7 @@
         <v>16</v>
       </c>
       <c r="G207" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H207" s="22"/>
       <c r="I207" s="22"/>
@@ -5961,7 +5953,7 @@
         <v>18</v>
       </c>
       <c r="B208" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C208" s="17"/>
       <c r="D208" s="17"/>
@@ -5970,7 +5962,7 @@
       <c r="G208" s="17"/>
       <c r="H208" s="17"/>
       <c r="I208" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J208" s="17"/>
     </row>
@@ -5979,7 +5971,7 @@
         <v>19</v>
       </c>
       <c r="B209" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C209" s="17"/>
       <c r="D209" s="17"/>
@@ -5987,10 +5979,10 @@
       <c r="F209" s="19"/>
       <c r="G209" s="17"/>
       <c r="H209" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I209" s="18"/>
-      <c r="J209" s="23"/>
+      <c r="J209" s="25"/>
       <c r="L209" s="1"/>
     </row>
     <row r="210" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5998,14 +5990,14 @@
         <v>20</v>
       </c>
       <c r="B210" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C210" s="17"/>
       <c r="D210" s="17"/>
-      <c r="E210" s="23"/>
+      <c r="E210" s="25"/>
       <c r="F210" s="19"/>
       <c r="G210" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H210" s="17"/>
       <c r="I210" s="17"/>
@@ -6017,14 +6009,14 @@
         <v>21</v>
       </c>
       <c r="B211" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C211" s="17"/>
       <c r="D211" s="17"/>
       <c r="E211" s="17"/>
       <c r="F211" s="19"/>
       <c r="G211" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H211" s="17"/>
       <c r="I211" s="17"/>
@@ -6037,7 +6029,7 @@
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
       <c r="D212" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E212" s="17"/>
       <c r="F212" s="19"/>
@@ -6047,20 +6039,20 @@
       <c r="J212" s="17"/>
     </row>
     <row r="213" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="26"/>
-      <c r="B213" s="27"/>
-      <c r="C213" s="27"/>
-      <c r="D213" s="27"/>
-      <c r="E213" s="27"/>
-      <c r="F213" s="30"/>
-      <c r="G213" s="27"/>
-      <c r="H213" s="27"/>
-      <c r="I213" s="27"/>
-      <c r="J213" s="27"/>
+      <c r="A213" s="30"/>
+      <c r="B213" s="31"/>
+      <c r="C213" s="31"/>
+      <c r="D213" s="31"/>
+      <c r="E213" s="31"/>
+      <c r="F213" s="34"/>
+      <c r="G213" s="31"/>
+      <c r="H213" s="31"/>
+      <c r="I213" s="31"/>
+      <c r="J213" s="31"/>
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
@@ -6112,18 +6104,18 @@
       </c>
       <c r="B216" s="17"/>
       <c r="C216" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D216" s="17"/>
       <c r="E216" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F216" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G216" s="17"/>
       <c r="H216" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
@@ -6134,14 +6126,14 @@
       </c>
       <c r="B217" s="17"/>
       <c r="C217" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D217" s="17"/>
       <c r="E217" s="17"/>
       <c r="F217" s="19"/>
       <c r="G217" s="17"/>
       <c r="H217" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
@@ -6151,7 +6143,7 @@
         <v>19</v>
       </c>
       <c r="B218" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C218" s="17"/>
       <c r="D218" s="17"/>
@@ -6160,7 +6152,7 @@
       <c r="G218" s="17"/>
       <c r="H218" s="17"/>
       <c r="I218" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J218" s="17"/>
       <c r="L218" s="1"/>
@@ -6171,13 +6163,13 @@
       </c>
       <c r="B219" s="17"/>
       <c r="C219" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D219" s="17"/>
       <c r="E219" s="17"/>
       <c r="F219" s="19"/>
       <c r="G219" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H219" s="17"/>
       <c r="I219" s="17"/>
@@ -6191,13 +6183,13 @@
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
       <c r="D220" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E220" s="23"/>
+        <v>190</v>
+      </c>
+      <c r="E220" s="25"/>
       <c r="F220" s="19"/>
       <c r="G220" s="17"/>
       <c r="H220" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I220" s="17"/>
       <c r="J220" s="17"/>
@@ -6217,16 +6209,243 @@
       <c r="J221" s="17"/>
     </row>
     <row r="222" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="26"/>
-      <c r="B222" s="27"/>
-      <c r="C222" s="27"/>
-      <c r="D222" s="27"/>
-      <c r="E222" s="27"/>
-      <c r="F222" s="30"/>
-      <c r="G222" s="27"/>
-      <c r="H222" s="27"/>
-      <c r="I222" s="27"/>
-      <c r="J222" s="27"/>
+      <c r="A222" s="30"/>
+      <c r="B222" s="31"/>
+      <c r="C222" s="31"/>
+      <c r="D222" s="31"/>
+      <c r="E222" s="31"/>
+      <c r="F222" s="34"/>
+      <c r="G222" s="31"/>
+      <c r="H222" s="31"/>
+      <c r="I222" s="31"/>
+      <c r="J222" s="31"/>
+    </row>
+    <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A223" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B223" s="13"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="13"/>
+      <c r="E223" s="13"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="13"/>
+      <c r="H223" s="13"/>
+      <c r="I223" s="14"/>
+      <c r="J223" s="13"/>
+      <c r="L223" s="0"/>
+      <c r="M223" s="0"/>
+      <c r="N223" s="0"/>
+      <c r="O223" s="0"/>
+      <c r="P223" s="0"/>
+      <c r="Q223" s="0"/>
+      <c r="R223" s="0"/>
+      <c r="S223" s="0"/>
+      <c r="T223" s="0"/>
+      <c r="U223" s="0"/>
+    </row>
+    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A224" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H224" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I224" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J224" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L224" s="0"/>
+      <c r="M224" s="0"/>
+      <c r="N224" s="0"/>
+      <c r="O224" s="0"/>
+      <c r="P224" s="0"/>
+      <c r="Q224" s="0"/>
+      <c r="R224" s="0"/>
+      <c r="S224" s="0"/>
+      <c r="T224" s="0"/>
+      <c r="U224" s="0"/>
+    </row>
+    <row r="225" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A225" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B225" s="17"/>
+      <c r="C225" s="17"/>
+      <c r="D225" s="17"/>
+      <c r="E225" s="17"/>
+      <c r="F225" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G225" s="17"/>
+      <c r="H225" s="17"/>
+      <c r="I225" s="17"/>
+      <c r="J225" s="17"/>
+      <c r="L225" s="0"/>
+      <c r="M225" s="0"/>
+      <c r="N225" s="0"/>
+      <c r="O225" s="0"/>
+      <c r="P225" s="0"/>
+      <c r="Q225" s="0"/>
+      <c r="R225" s="0"/>
+      <c r="S225" s="0"/>
+      <c r="T225" s="0"/>
+      <c r="U225" s="0"/>
+    </row>
+    <row r="226" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A226" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B226" s="17"/>
+      <c r="C226" s="17"/>
+      <c r="D226" s="17"/>
+      <c r="E226" s="17"/>
+      <c r="F226" s="19"/>
+      <c r="G226" s="17"/>
+      <c r="H226" s="17"/>
+      <c r="I226" s="17"/>
+      <c r="J226" s="17"/>
+      <c r="L226" s="0"/>
+      <c r="M226" s="0"/>
+      <c r="N226" s="0"/>
+      <c r="O226" s="0"/>
+      <c r="P226" s="0"/>
+      <c r="Q226" s="0"/>
+      <c r="R226" s="0"/>
+      <c r="S226" s="0"/>
+      <c r="T226" s="0"/>
+      <c r="U226" s="0"/>
+    </row>
+    <row r="227" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A227" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B227" s="17"/>
+      <c r="C227" s="17"/>
+      <c r="D227" s="17"/>
+      <c r="E227" s="17"/>
+      <c r="F227" s="19"/>
+      <c r="G227" s="17"/>
+      <c r="H227" s="17"/>
+      <c r="I227" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="J227" s="17"/>
+      <c r="L227" s="0"/>
+      <c r="M227" s="0"/>
+      <c r="N227" s="0"/>
+      <c r="O227" s="0"/>
+      <c r="P227" s="0"/>
+      <c r="Q227" s="0"/>
+      <c r="R227" s="0"/>
+      <c r="S227" s="0"/>
+      <c r="T227" s="0"/>
+      <c r="U227" s="0"/>
+    </row>
+    <row r="228" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A228" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" s="17"/>
+      <c r="C228" s="17"/>
+      <c r="D228" s="17"/>
+      <c r="E228" s="17"/>
+      <c r="F228" s="19"/>
+      <c r="G228" s="17"/>
+      <c r="H228" s="17"/>
+      <c r="I228" s="17"/>
+      <c r="J228" s="17"/>
+      <c r="L228" s="0"/>
+      <c r="M228" s="0"/>
+      <c r="N228" s="0"/>
+      <c r="O228" s="0"/>
+      <c r="P228" s="0"/>
+      <c r="Q228" s="0"/>
+      <c r="R228" s="0"/>
+      <c r="S228" s="0"/>
+      <c r="T228" s="0"/>
+      <c r="U228" s="0"/>
+    </row>
+    <row r="229" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A229" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B229" s="17"/>
+      <c r="C229" s="17"/>
+      <c r="D229" s="17"/>
+      <c r="E229" s="17"/>
+      <c r="F229" s="19"/>
+      <c r="G229" s="17"/>
+      <c r="H229" s="17"/>
+      <c r="I229" s="17"/>
+      <c r="J229" s="17"/>
+      <c r="L229" s="0"/>
+      <c r="M229" s="0"/>
+      <c r="N229" s="0"/>
+      <c r="O229" s="0"/>
+      <c r="P229" s="0"/>
+      <c r="Q229" s="0"/>
+      <c r="R229" s="0"/>
+      <c r="S229" s="0"/>
+      <c r="T229" s="0"/>
+      <c r="U229" s="0"/>
+    </row>
+    <row r="230" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A230" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B230" s="17"/>
+      <c r="C230" s="17"/>
+      <c r="D230" s="17"/>
+      <c r="E230" s="17"/>
+      <c r="F230" s="19"/>
+      <c r="G230" s="17"/>
+      <c r="H230" s="17"/>
+      <c r="I230" s="17"/>
+      <c r="J230" s="17"/>
+      <c r="L230" s="0"/>
+      <c r="M230" s="0"/>
+      <c r="N230" s="0"/>
+      <c r="O230" s="0"/>
+      <c r="P230" s="0"/>
+      <c r="Q230" s="0"/>
+      <c r="R230" s="0"/>
+      <c r="S230" s="0"/>
+      <c r="T230" s="0"/>
+      <c r="U230" s="0"/>
+    </row>
+    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0"/>
+      <c r="B231" s="13"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="13"/>
+      <c r="H231" s="13"/>
+      <c r="I231" s="14"/>
+      <c r="J231" s="13"/>
+      <c r="L231" s="2"/>
     </row>
     <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6354,7 +6573,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="168">
+  <mergeCells count="171">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A5:J5"/>
@@ -6364,11 +6583,11 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="F18:F23"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="F27:F32"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="F36:F41"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="B37:D37"/>
@@ -6475,7 +6694,8 @@
     <mergeCell ref="B147:D147"/>
     <mergeCell ref="C153:E153"/>
     <mergeCell ref="F153:F158"/>
-    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="G155:I155"/>
     <mergeCell ref="B156:D156"/>
     <mergeCell ref="G157:H157"/>
     <mergeCell ref="F162:F167"/>
@@ -6488,7 +6708,7 @@
     <mergeCell ref="B180:D180"/>
     <mergeCell ref="F180:F185"/>
     <mergeCell ref="B181:D181"/>
-    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="H181:J181"/>
     <mergeCell ref="B182:D182"/>
     <mergeCell ref="I182:J182"/>
     <mergeCell ref="B183:D183"/>
@@ -6503,11 +6723,11 @@
     <mergeCell ref="H193:I193"/>
     <mergeCell ref="B198:D198"/>
     <mergeCell ref="F198:F203"/>
+    <mergeCell ref="G198:H198"/>
     <mergeCell ref="B199:D199"/>
     <mergeCell ref="C200:D200"/>
     <mergeCell ref="H200:J200"/>
     <mergeCell ref="H201:J201"/>
-    <mergeCell ref="B202:D202"/>
     <mergeCell ref="B203:C203"/>
     <mergeCell ref="D203:E203"/>
     <mergeCell ref="G203:H203"/>
@@ -6523,6 +6743,8 @@
     <mergeCell ref="F216:F221"/>
     <mergeCell ref="G219:H219"/>
     <mergeCell ref="H220:I220"/>
+    <mergeCell ref="F225:F230"/>
+    <mergeCell ref="I227:J227"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.39375" top="0.39375" bottom="0.39375" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6541,8 +6763,8 @@
   </sheetPr>
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H80" activeCellId="0" sqref="H80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I70" activeCellId="0" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6635,7 +6857,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="37"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6682,46 +6904,48 @@
         <v>15</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
+      <c r="H8" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="17"/>
       <c r="G9" s="19"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="39"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="44"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
@@ -6729,7 +6953,7 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -6738,38 +6962,38 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="17"/>
       <c r="G11" s="19"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="41"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="46"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
@@ -6777,7 +7001,7 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -6786,38 +7010,38 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="41"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="46"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="17"/>
       <c r="G13" s="19"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="39"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="44"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6827,14 +7051,14 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="37"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
@@ -6874,36 +7098,36 @@
         <v>15</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="42"/>
+      <c r="C16" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="42"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="C17" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
       <c r="G17" s="19"/>
       <c r="H17" s="17"/>
       <c r="I17" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
@@ -6913,16 +7137,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="C18" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="17"/>
+      <c r="H18" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6931,7 +7157,7 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -6939,7 +7165,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
@@ -6950,24 +7176,26 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="17"/>
       <c r="G20" s="19"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="I20" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
@@ -6978,7 +7206,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -6988,7 +7216,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="37"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7030,11 +7258,11 @@
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="43"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="19" t="s">
         <v>16</v>
       </c>
@@ -7051,15 +7279,15 @@
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="43"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="19"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
@@ -7070,15 +7298,15 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="43"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="19"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
@@ -7089,15 +7317,15 @@
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="43"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="19"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
@@ -7108,16 +7336,16 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="43"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="19"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
@@ -7135,34 +7363,34 @@
       <c r="K29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -7172,7 +7400,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="37"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7222,7 +7450,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K34" s="17"/>
     </row>
@@ -7238,7 +7466,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -7249,17 +7477,17 @@
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="19"/>
       <c r="H36" s="17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="K36" s="17"/>
     </row>
@@ -7270,14 +7498,14 @@
       <c r="B37" s="15"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="19"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
@@ -7288,14 +7516,14 @@
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="19"/>
       <c r="H38" s="17" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -7318,7 +7546,7 @@
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -7328,7 +7556,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="37"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7370,7 +7598,7 @@
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
@@ -7379,7 +7607,7 @@
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
@@ -7390,14 +7618,14 @@
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="17" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="G43" s="19"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
@@ -7408,7 +7636,7 @@
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="17" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
@@ -7424,14 +7652,14 @@
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="G45" s="19"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
@@ -7442,7 +7670,7 @@
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="17" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -7469,7 +7697,7 @@
     </row>
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -7479,7 +7707,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="37"/>
+      <c r="J48" s="42"/>
       <c r="K48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7521,7 +7749,7 @@
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
@@ -7531,7 +7759,7 @@
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
@@ -7542,7 +7770,7 @@
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -7550,7 +7778,7 @@
       <c r="G51" s="19"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
@@ -7567,7 +7795,7 @@
       <c r="G52" s="19"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
@@ -7578,18 +7806,16 @@
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="44"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="33"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="s">
@@ -7597,7 +7823,7 @@
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
@@ -7605,7 +7831,7 @@
       <c r="G54" s="19"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
@@ -7627,7 +7853,7 @@
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -7637,7 +7863,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="37"/>
+      <c r="J57" s="42"/>
       <c r="K57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7679,7 +7905,7 @@
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
@@ -7687,11 +7913,11 @@
         <v>16</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
-      <c r="K59" s="42"/>
+      <c r="K59" s="47"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
@@ -7699,15 +7925,15 @@
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
@@ -7715,14 +7941,14 @@
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="42"/>
+      <c r="H61" s="47"/>
       <c r="I61" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
@@ -7733,30 +7959,30 @@
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="G62" s="19"/>
       <c r="H62" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
-      <c r="K62" s="42"/>
+      <c r="K62" s="47"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="15"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="42"/>
+      <c r="H63" s="47"/>
       <c r="I63" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
@@ -7778,7 +8004,7 @@
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -7788,7 +8014,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="37"/>
+      <c r="J66" s="42"/>
       <c r="K66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7830,20 +8056,20 @@
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
-      <c r="F68" s="42"/>
+      <c r="F68" s="47"/>
       <c r="G68" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
-      <c r="K68" s="42"/>
+      <c r="K68" s="47"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
@@ -7851,18 +8077,18 @@
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
-      <c r="F69" s="42"/>
+      <c r="F69" s="47"/>
       <c r="G69" s="19"/>
       <c r="H69" s="17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
-      <c r="K69" s="42"/>
+      <c r="K69" s="47"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
@@ -7870,15 +8096,15 @@
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
-      <c r="F70" s="42"/>
+      <c r="F70" s="47"/>
       <c r="G70" s="19"/>
-      <c r="H70" s="42"/>
+      <c r="H70" s="47"/>
       <c r="I70" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
@@ -7889,18 +8115,18 @@
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
-      <c r="F71" s="42"/>
+      <c r="F71" s="47"/>
       <c r="G71" s="19"/>
       <c r="H71" s="17" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="42"/>
+      <c r="K71" s="47"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
@@ -7908,15 +8134,15 @@
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
-      <c r="F72" s="42"/>
+      <c r="F72" s="47"/>
       <c r="G72" s="19"/>
-      <c r="H72" s="42"/>
+      <c r="H72" s="47"/>
       <c r="I72" s="17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
@@ -7938,7 +8164,7 @@
     </row>
     <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -7948,7 +8174,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-      <c r="J75" s="37"/>
+      <c r="J75" s="42"/>
       <c r="K75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7989,75 +8215,76 @@
         <v>15</v>
       </c>
       <c r="B77" s="15"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="19" t="s">
+      <c r="C77" s="48"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H77" s="43"/>
-      <c r="I77" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="15"/>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17" t="s">
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B79" s="15"/>
-      <c r="C79" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="45" t="s">
+      <c r="C79" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J79" s="45"/>
-      <c r="K79" s="45"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B80" s="15"/>
-      <c r="C80" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="17" t="s">
+      <c r="C80" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
@@ -8067,33 +8294,33 @@
       <c r="C81" s="22"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="17" t="s">
+      <c r="F81" s="22"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B82" s="15"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
     </row>
     <row r="84" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -8103,7 +8330,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
-      <c r="J84" s="37"/>
+      <c r="J84" s="42"/>
       <c r="K84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8152,7 +8379,7 @@
         <v>16</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
@@ -8166,13 +8393,13 @@
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="19"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
@@ -8188,7 +8415,7 @@
       <c r="F88" s="17"/>
       <c r="G88" s="19"/>
       <c r="H88" s="17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
@@ -8201,14 +8428,14 @@
       <c r="B89" s="15"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="19"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
@@ -8220,14 +8447,14 @@
       <c r="B90" s="15"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="19"/>
       <c r="H90" s="17"/>
       <c r="I90" s="17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
@@ -8280,8 +8507,8 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="H18:J18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="I19:K19"/>
